--- a/data/output/FV2410_FV2404/INVOIC/31009.xlsx
+++ b/data/output/FV2410_FV2404/INVOIC/31009.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3986" uniqueCount="337">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4007" uniqueCount="337">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichtenanfang</t>
@@ -1163,6 +1163,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U186" totalsRowShown="0">
+  <autoFilter ref="A1:U186"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1452,7 +1482,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U186"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -10061,5 +10094,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/INVOIC/31009.xlsx
+++ b/data/output/FV2410_FV2404/INVOIC/31009.xlsx
@@ -2114,7 +2114,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2448,7 +2448,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2682,7 +2682,7 @@
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N14" s="2"/>
@@ -2870,7 +2870,7 @@
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="2" t="s">
+      <c r="M18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N18" s="2"/>
@@ -3060,7 +3060,7 @@
         <v>311</v>
       </c>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2"/>
@@ -3248,7 +3248,7 @@
         <v>311</v>
       </c>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2"/>
@@ -3434,7 +3434,7 @@
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N30" s="2"/>
@@ -3578,7 +3578,7 @@
         <v>313</v>
       </c>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N33" s="2"/>
@@ -3718,7 +3718,7 @@
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="4"/>
-      <c r="M36" s="2" t="s">
+      <c r="M36" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N36" s="2" t="s">
@@ -3908,7 +3908,7 @@
         <v>314</v>
       </c>
       <c r="L40" s="4"/>
-      <c r="M40" s="2" t="s">
+      <c r="M40" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N40" s="2" t="s">
@@ -4098,7 +4098,7 @@
       </c>
       <c r="K44" s="2"/>
       <c r="L44" s="4"/>
-      <c r="M44" s="2" t="s">
+      <c r="M44" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N44" s="2" t="s">
@@ -4756,7 +4756,7 @@
       </c>
       <c r="K57" s="2"/>
       <c r="L57" s="4"/>
-      <c r="M57" s="2" t="s">
+      <c r="M57" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N57" s="2" t="s">
@@ -4998,7 +4998,7 @@
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -5184,7 +5184,7 @@
       </c>
       <c r="K66" s="2"/>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -5548,7 +5548,7 @@
       </c>
       <c r="K73" s="2"/>
       <c r="L73" s="4"/>
-      <c r="M73" s="2" t="s">
+      <c r="M73" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N73" s="2" t="s">
@@ -6208,7 +6208,7 @@
         <v>320</v>
       </c>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -6452,7 +6452,7 @@
       </c>
       <c r="K91" s="2"/>
       <c r="L91" s="4"/>
-      <c r="M91" s="2" t="s">
+      <c r="M91" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N91" s="2" t="s">
@@ -6842,7 +6842,7 @@
       </c>
       <c r="K99" s="2"/>
       <c r="L99" s="4"/>
-      <c r="M99" s="2" t="s">
+      <c r="M99" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N99" s="2" t="s">
@@ -6990,7 +6990,7 @@
       </c>
       <c r="K102" s="2"/>
       <c r="L102" s="4"/>
-      <c r="M102" s="2" t="s">
+      <c r="M102" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N102" s="2" t="s">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="K107" s="2"/>
       <c r="L107" s="4"/>
-      <c r="M107" s="2" t="s">
+      <c r="M107" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N107" s="2" t="s">
@@ -7368,7 +7368,7 @@
       </c>
       <c r="K110" s="2"/>
       <c r="L110" s="4"/>
-      <c r="M110" s="2" t="s">
+      <c r="M110" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N110" s="2" t="s">
@@ -7570,7 +7570,7 @@
       </c>
       <c r="K114" s="2"/>
       <c r="L114" s="4"/>
-      <c r="M114" s="2" t="s">
+      <c r="M114" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N114" s="2" t="s">
@@ -7872,7 +7872,7 @@
       </c>
       <c r="K120" s="2"/>
       <c r="L120" s="4"/>
-      <c r="M120" s="2" t="s">
+      <c r="M120" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N120" s="2" t="s">
@@ -8082,7 +8082,7 @@
         <v>329</v>
       </c>
       <c r="L124" s="4"/>
-      <c r="M124" s="2" t="s">
+      <c r="M124" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N124" s="2" t="s">
@@ -8402,7 +8402,7 @@
         <v>332</v>
       </c>
       <c r="L130" s="4"/>
-      <c r="M130" s="2" t="s">
+      <c r="M130" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N130" s="2" t="s">
@@ -8606,7 +8606,7 @@
         <v>332</v>
       </c>
       <c r="L134" s="4"/>
-      <c r="M134" s="2" t="s">
+      <c r="M134" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N134" s="2" t="s">
@@ -8810,7 +8810,7 @@
         <v>333</v>
       </c>
       <c r="L138" s="4"/>
-      <c r="M138" s="2" t="s">
+      <c r="M138" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N138" s="2" t="s">
@@ -9014,7 +9014,7 @@
       </c>
       <c r="K142" s="2"/>
       <c r="L142" s="4"/>
-      <c r="M142" s="2" t="s">
+      <c r="M142" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N142" s="2" t="s">
@@ -9202,7 +9202,7 @@
       </c>
       <c r="K146" s="2"/>
       <c r="L146" s="4"/>
-      <c r="M146" s="2" t="s">
+      <c r="M146" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N146" s="2" t="s">
@@ -9502,7 +9502,7 @@
       </c>
       <c r="K152" s="2"/>
       <c r="L152" s="4"/>
-      <c r="M152" s="2" t="s">
+      <c r="M152" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N152" s="2" t="s">
@@ -9906,7 +9906,7 @@
       </c>
       <c r="K160" s="2"/>
       <c r="L160" s="4"/>
-      <c r="M160" s="2" t="s">
+      <c r="M160" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N160" s="2"/>
@@ -9994,7 +9994,7 @@
       </c>
       <c r="K162" s="2"/>
       <c r="L162" s="4"/>
-      <c r="M162" s="2" t="s">
+      <c r="M162" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N162" s="2" t="s">
@@ -10182,7 +10182,7 @@
       </c>
       <c r="K166" s="2"/>
       <c r="L166" s="4"/>
-      <c r="M166" s="2" t="s">
+      <c r="M166" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N166" s="2" t="s">
@@ -10370,7 +10370,7 @@
       </c>
       <c r="K170" s="2"/>
       <c r="L170" s="4"/>
-      <c r="M170" s="2" t="s">
+      <c r="M170" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N170" s="2" t="s">
@@ -10776,7 +10776,7 @@
       </c>
       <c r="K178" s="2"/>
       <c r="L178" s="4"/>
-      <c r="M178" s="2" t="s">
+      <c r="M178" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N178" s="2" t="s">
@@ -10926,7 +10926,7 @@
       </c>
       <c r="K181" s="2"/>
       <c r="L181" s="4"/>
-      <c r="M181" s="2" t="s">
+      <c r="M181" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N181" s="2" t="s">
@@ -11074,7 +11074,7 @@
       </c>
       <c r="K184" s="2"/>
       <c r="L184" s="4"/>
-      <c r="M184" s="2" t="s">
+      <c r="M184" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N184" s="2"/>
